--- a/Code/Results/Cases/Case_2_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_163/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.1936068410171</v>
+        <v>14.65903648854455</v>
       </c>
       <c r="C2">
-        <v>6.357982888992467</v>
+        <v>7.932794846617679</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.12636910987578</v>
+        <v>11.882420359395</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>41.61921064685977</v>
+        <v>48.80867767209238</v>
       </c>
       <c r="H2">
-        <v>13.54202233825631</v>
+        <v>19.25876126438727</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.79345106809633</v>
+        <v>10.98704373276778</v>
       </c>
       <c r="L2">
-        <v>6.814109275924304</v>
+        <v>9.874170581194372</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.35796363959939</v>
+        <v>14.48795770986589</v>
       </c>
       <c r="C3">
-        <v>6.307610241550292</v>
+        <v>7.914179842343547</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.981865254889875</v>
+        <v>11.8855654352398</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>40.95357926944951</v>
+        <v>48.7675845688211</v>
       </c>
       <c r="H3">
-        <v>13.53042518278795</v>
+        <v>19.29387742554934</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.09698368013562</v>
+        <v>10.8777593076427</v>
       </c>
       <c r="L3">
-        <v>6.628135411941121</v>
+        <v>9.866265104004345</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.82561887710483</v>
+        <v>14.38565901498351</v>
       </c>
       <c r="C4">
-        <v>6.276430533462173</v>
+        <v>7.902440111922375</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.89673392537681</v>
+        <v>11.88953797794296</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>40.57739039339646</v>
+        <v>48.75407083715752</v>
       </c>
       <c r="H4">
-        <v>13.53178204089565</v>
+        <v>19.31843298937285</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.646364630844896</v>
+        <v>10.81276876696415</v>
       </c>
       <c r="L4">
-        <v>6.515429452043815</v>
+        <v>9.863190286126908</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.60402483427289</v>
+        <v>14.34471127972582</v>
       </c>
       <c r="C5">
-        <v>6.263657608519907</v>
+        <v>7.897578465919604</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.862960252279431</v>
+        <v>11.8916705669372</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>40.43208590631045</v>
+        <v>48.75150749853966</v>
       </c>
       <c r="H5">
-        <v>13.53437985404925</v>
+        <v>19.32919107445932</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.456927194604431</v>
+        <v>10.78684456307202</v>
       </c>
       <c r="L5">
-        <v>6.469923439220691</v>
+        <v>9.862386091414113</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.56695418298456</v>
+        <v>14.33795804668013</v>
       </c>
       <c r="C6">
-        <v>6.261532527868555</v>
+        <v>7.896766516167235</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.857407986744577</v>
+        <v>11.89205571888647</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>40.40843546352352</v>
+        <v>48.75125951745874</v>
       </c>
       <c r="H6">
-        <v>13.53493221845002</v>
+        <v>19.33102279214914</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.425119930947782</v>
+        <v>10.782574523207</v>
       </c>
       <c r="L6">
-        <v>6.462394209682295</v>
+        <v>9.862279699910642</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.82264897110428</v>
+        <v>14.38510371943111</v>
       </c>
       <c r="C7">
-        <v>6.276258549113567</v>
+        <v>7.90237485983227</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.896274707236126</v>
+        <v>11.88956465824659</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>40.57539864497943</v>
+        <v>48.75402435405332</v>
       </c>
       <c r="H7">
-        <v>13.5318089097426</v>
+        <v>19.31857503585243</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.643833351287958</v>
+        <v>10.81241683895256</v>
       </c>
       <c r="L7">
-        <v>6.514813964008844</v>
+        <v>9.863177621523127</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.90956939584712</v>
+        <v>14.59950918234689</v>
       </c>
       <c r="C8">
-        <v>6.340663886672898</v>
+        <v>7.926440949688591</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.075807010147578</v>
+        <v>11.88308137307036</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>41.38285097746259</v>
+        <v>48.79207571122453</v>
       </c>
       <c r="H8">
-        <v>13.53621130587251</v>
+        <v>19.27024707454516</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.55806116198961</v>
+        <v>10.94894229118964</v>
       </c>
       <c r="L8">
-        <v>6.749706919397839</v>
+        <v>9.87107643393751</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.88242075392948</v>
+        <v>15.03948759085106</v>
       </c>
       <c r="C9">
-        <v>6.465188200109642</v>
+        <v>7.971160416197695</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.45573194864801</v>
+        <v>11.88654162442651</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>43.23140938405686</v>
+        <v>48.95970304884612</v>
       </c>
       <c r="H9">
-        <v>13.61609711232452</v>
+        <v>19.19929316578101</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.17009130286541</v>
+        <v>11.23208183483356</v>
       </c>
       <c r="L9">
-        <v>7.220053683230337</v>
+        <v>9.900610590011029</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.36003150243798</v>
+        <v>15.37158211422946</v>
       </c>
       <c r="C10">
-        <v>6.555958972312924</v>
+        <v>8.002490906037536</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.750986880130933</v>
+        <v>11.89890234799</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>44.76020900217888</v>
+        <v>49.1394718453048</v>
       </c>
       <c r="H10">
-        <v>13.72385574946603</v>
+        <v>19.16176192320129</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.24699120125107</v>
+        <v>11.44766478171284</v>
       </c>
       <c r="L10">
-        <v>7.569100660161114</v>
+        <v>9.93076033971494</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.0100811164553</v>
+        <v>15.52392440489634</v>
       </c>
       <c r="C11">
-        <v>6.597197404482776</v>
+        <v>8.016409447351554</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.888645555761441</v>
+        <v>11.90664468422956</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>45.49456091299905</v>
+        <v>49.23347890469099</v>
       </c>
       <c r="H11">
-        <v>13.78479425752048</v>
+        <v>19.14787306960611</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.7142914545097</v>
+        <v>11.54698144034388</v>
       </c>
       <c r="L11">
-        <v>7.728231051065575</v>
+        <v>9.946282431697394</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.25182071081728</v>
+        <v>15.58174075669224</v>
       </c>
       <c r="C12">
-        <v>6.612815445266524</v>
+        <v>8.021631693435269</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.941243303569365</v>
+        <v>11.90987979621856</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>45.77838093490512</v>
+        <v>49.27082563616187</v>
       </c>
       <c r="H12">
-        <v>13.80969182959216</v>
+        <v>19.14307267158235</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.8880649987985</v>
+        <v>11.58473577388228</v>
       </c>
       <c r="L12">
-        <v>7.788512447868818</v>
+        <v>9.952417171078093</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.19995280116537</v>
+        <v>15.56928416290105</v>
       </c>
       <c r="C13">
-        <v>6.609451564274144</v>
+        <v>8.020509148324905</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.92989471291021</v>
+        <v>11.90916959575025</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>45.7169976545423</v>
+        <v>49.26270478216084</v>
       </c>
       <c r="H13">
-        <v>13.80424692701484</v>
+        <v>19.144086092094</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.85078021080057</v>
+        <v>11.57659878135533</v>
       </c>
       <c r="L13">
-        <v>7.775529155117206</v>
+        <v>9.951084571065845</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.03005720953048</v>
+        <v>15.52867874571719</v>
       </c>
       <c r="C14">
-        <v>6.598482210450488</v>
+        <v>8.016840057010826</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.89296345241312</v>
+        <v>11.90690477049013</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>45.5177951181286</v>
+        <v>49.23651647157409</v>
       </c>
       <c r="H14">
-        <v>13.78680546070907</v>
+        <v>19.14746893276995</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.72865130267998</v>
+        <v>11.55008479486485</v>
       </c>
       <c r="L14">
-        <v>7.733190128773705</v>
+        <v>9.946782010385562</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.92541848575983</v>
+        <v>15.50382175512464</v>
       </c>
       <c r="C15">
-        <v>6.591763729742657</v>
+        <v>8.014586317398088</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.870402824621577</v>
+        <v>11.90555694436455</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>45.39652937708413</v>
+        <v>49.22070270966719</v>
       </c>
       <c r="H15">
-        <v>13.77636252769018</v>
+        <v>19.14960082802491</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.65343135411879</v>
+        <v>11.53386212433495</v>
       </c>
       <c r="L15">
-        <v>7.707258429665269</v>
+        <v>9.94417992636842</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.31692553926563</v>
+        <v>15.36164703086848</v>
       </c>
       <c r="C16">
-        <v>6.553263655793989</v>
+        <v>8.001574544733277</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.742056814989484</v>
+        <v>11.89843889143412</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>44.7130121156749</v>
+        <v>49.1335735256807</v>
       </c>
       <c r="H16">
-        <v>13.72012222113102</v>
+        <v>19.16273376616028</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.2160029340596</v>
+        <v>11.44119638233466</v>
       </c>
       <c r="L16">
-        <v>7.558705578768539</v>
+        <v>9.929782045238071</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.93566182178294</v>
+        <v>15.27471348721416</v>
       </c>
       <c r="C17">
-        <v>6.529637774738692</v>
+        <v>7.993506452952922</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.664168339300392</v>
+        <v>11.89461401518874</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>44.30375777679584</v>
+        <v>49.08324827908579</v>
       </c>
       <c r="H17">
-        <v>13.68874866197565</v>
+        <v>19.17160679884344</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.94191391678272</v>
+        <v>11.38464405243394</v>
       </c>
       <c r="L17">
-        <v>7.467640329131496</v>
+        <v>9.921410157354606</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.71341018008594</v>
+        <v>15.22483448823579</v>
       </c>
       <c r="C18">
-        <v>6.516043080669349</v>
+        <v>7.988834499377837</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.619684404708233</v>
+        <v>11.89261363724034</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>44.07201742179004</v>
+        <v>49.05545437853749</v>
       </c>
       <c r="H18">
-        <v>13.67181860775005</v>
+        <v>19.17700999394017</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.78213488036145</v>
+        <v>11.35223604445276</v>
       </c>
       <c r="L18">
-        <v>7.415295949790095</v>
+        <v>9.916765128627597</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.63764878022403</v>
+        <v>15.20796911185764</v>
       </c>
       <c r="C19">
-        <v>6.511438899576685</v>
+        <v>7.987247275179911</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.604677494969328</v>
+        <v>11.89197066584228</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>43.99417709221586</v>
+        <v>49.04624194627025</v>
       </c>
       <c r="H19">
-        <v>13.66627469747563</v>
+        <v>19.17889085447291</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.7276686915251</v>
+        <v>11.3412847956911</v>
       </c>
       <c r="L19">
-        <v>7.397579824608974</v>
+        <v>9.915221729962715</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.97655359204495</v>
+        <v>15.2839553958318</v>
       </c>
       <c r="C20">
-        <v>6.532153316090734</v>
+        <v>7.994368567820062</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.672427146681109</v>
+        <v>11.89500053326523</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>44.34694462704363</v>
+        <v>49.08848634196636</v>
       </c>
       <c r="H20">
-        <v>13.69197224556318</v>
+        <v>19.17063122709838</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.9713111865278</v>
+        <v>11.39065203446699</v>
       </c>
       <c r="L20">
-        <v>7.477331089332228</v>
+        <v>9.922283758491465</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.08007885210455</v>
+        <v>15.54060251219893</v>
       </c>
       <c r="C21">
-        <v>6.601704038354808</v>
+        <v>8.017919074862077</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.903798397010549</v>
+        <v>11.90756178730502</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>45.57614883334846</v>
+        <v>49.24416125856231</v>
       </c>
       <c r="H21">
-        <v>13.79187813128926</v>
+        <v>19.14646284476881</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.76460935539563</v>
+        <v>11.557868923024</v>
       </c>
       <c r="L21">
-        <v>7.745625713517722</v>
+        <v>9.948038830477101</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.77558154918642</v>
+        <v>15.70905526900684</v>
       </c>
       <c r="C22">
-        <v>6.647176386228794</v>
+        <v>8.033028379076335</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.057745911542693</v>
+        <v>11.91753806148398</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>46.41301991260107</v>
+        <v>49.35608779313074</v>
       </c>
       <c r="H22">
-        <v>13.86784214715867</v>
+        <v>19.13334330459191</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.26455808254285</v>
+        <v>11.66798597029674</v>
       </c>
       <c r="L22">
-        <v>7.921092951843938</v>
+        <v>9.966366886101925</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.40669911236768</v>
+        <v>15.61910104825184</v>
       </c>
       <c r="C23">
-        <v>6.622901791909746</v>
+        <v>8.024990220596665</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.975334148618698</v>
+        <v>11.91205242881137</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>45.9632487018139</v>
+        <v>49.29542266854518</v>
       </c>
       <c r="H23">
-        <v>13.82628587334043</v>
+        <v>19.14010026721186</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.99939714477906</v>
+        <v>11.6091495617881</v>
       </c>
       <c r="L23">
-        <v>7.827439112829087</v>
+        <v>9.956449050299444</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.95807595464067</v>
+        <v>15.27977681243945</v>
       </c>
       <c r="C24">
-        <v>6.531016077497603</v>
+        <v>7.993978910023462</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.668692419484294</v>
+        <v>11.89482516973841</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>44.32740881957785</v>
+        <v>49.08611466571298</v>
       </c>
       <c r="H24">
-        <v>13.69051142339301</v>
+        <v>19.17107134248394</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.95802754323722</v>
+        <v>11.38793549710917</v>
       </c>
       <c r="L24">
-        <v>7.472949862541617</v>
+        <v>9.921888279643614</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.36634385658547</v>
+        <v>14.91868563426553</v>
       </c>
       <c r="C25">
-        <v>6.431656907487103</v>
+        <v>7.959329206594617</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.350059735101963</v>
+        <v>11.88387749562232</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>42.70196752284188</v>
+        <v>48.90439782184707</v>
       </c>
       <c r="H25">
-        <v>13.58628572643556</v>
+        <v>19.21592975133762</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.75308855831528</v>
+        <v>11.15402247309554</v>
       </c>
       <c r="L25">
-        <v>7.092040664062954</v>
+        <v>9.891127671410267</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_163/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.65903648854455</v>
+        <v>14.19360684101708</v>
       </c>
       <c r="C2">
-        <v>7.932794846617679</v>
+        <v>6.357982888992598</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.882420359395</v>
+        <v>8.126369109875773</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>48.80867767209238</v>
+        <v>41.61921064685949</v>
       </c>
       <c r="H2">
-        <v>19.25876126438727</v>
+        <v>13.54202233825626</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.98704373276778</v>
+        <v>10.79345106809635</v>
       </c>
       <c r="L2">
-        <v>9.874170581194372</v>
+        <v>6.814109275924346</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.48795770986589</v>
+        <v>13.35796363959942</v>
       </c>
       <c r="C3">
-        <v>7.914179842343547</v>
+        <v>6.307610241550154</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.8855654352398</v>
+        <v>7.981865254889923</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>48.7675845688211</v>
+        <v>40.95357926944965</v>
       </c>
       <c r="H3">
-        <v>19.29387742554934</v>
+        <v>13.53042518278796</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.8777593076427</v>
+        <v>10.09698368013555</v>
       </c>
       <c r="L3">
-        <v>9.866265104004345</v>
+        <v>6.628135411941202</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.38565901498351</v>
+        <v>12.82561887710488</v>
       </c>
       <c r="C4">
-        <v>7.902440111922375</v>
+        <v>6.276430533462306</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.88953797794296</v>
+        <v>7.896733925376854</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>48.75407083715752</v>
+        <v>40.57739039339675</v>
       </c>
       <c r="H4">
-        <v>19.31843298937285</v>
+        <v>13.5317820408957</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.81276876696415</v>
+        <v>9.646364630844808</v>
       </c>
       <c r="L4">
-        <v>9.863190286126908</v>
+        <v>6.515429452043818</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.34471127972582</v>
+        <v>12.6040248342729</v>
       </c>
       <c r="C5">
-        <v>7.897578465919604</v>
+        <v>6.263657608519908</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.8916705669372</v>
+        <v>7.86296025227939</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>48.75150749853966</v>
+        <v>40.43208590631021</v>
       </c>
       <c r="H5">
-        <v>19.32919107445932</v>
+        <v>13.53437985404923</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.78684456307202</v>
+        <v>9.456927194604408</v>
       </c>
       <c r="L5">
-        <v>9.862386091414113</v>
+        <v>6.469923439220664</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.33795804668013</v>
+        <v>12.56695418298462</v>
       </c>
       <c r="C6">
-        <v>7.896766516167235</v>
+        <v>6.261532527868829</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.89205571888647</v>
+        <v>7.857407986744605</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>48.75125951745874</v>
+        <v>40.40843546352406</v>
       </c>
       <c r="H6">
-        <v>19.33102279214914</v>
+        <v>13.5349322184503</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.782574523207</v>
+        <v>9.425119930947744</v>
       </c>
       <c r="L6">
-        <v>9.862279699910642</v>
+        <v>6.462394209682337</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.38510371943111</v>
+        <v>12.82264897110431</v>
       </c>
       <c r="C7">
-        <v>7.90237485983227</v>
+        <v>6.276258549113168</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.88956465824659</v>
+        <v>7.896274707236079</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>48.75402435405332</v>
+        <v>40.57539864498012</v>
       </c>
       <c r="H7">
-        <v>19.31857503585243</v>
+        <v>13.53180890974283</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.81241683895256</v>
+        <v>9.643833351287919</v>
       </c>
       <c r="L7">
-        <v>9.863177621523127</v>
+        <v>6.514813964008876</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.59950918234689</v>
+        <v>13.90956939584712</v>
       </c>
       <c r="C8">
-        <v>7.926440949688591</v>
+        <v>6.340663886672769</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.88308137307036</v>
+        <v>8.075807010147583</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>48.79207571122453</v>
+        <v>41.38285097746249</v>
       </c>
       <c r="H8">
-        <v>19.27024707454516</v>
+        <v>13.53621130587251</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.94894229118964</v>
+        <v>10.55806116198963</v>
       </c>
       <c r="L8">
-        <v>9.87107643393751</v>
+        <v>6.749706919397795</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.03948759085106</v>
+        <v>15.88242075392947</v>
       </c>
       <c r="C9">
-        <v>7.971160416197695</v>
+        <v>6.465188200109778</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.88654162442651</v>
+        <v>8.455731948648054</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>48.95970304884612</v>
+        <v>43.23140938405714</v>
       </c>
       <c r="H9">
-        <v>19.19929316578101</v>
+        <v>13.61609711232449</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.23208183483356</v>
+        <v>12.17009130286546</v>
       </c>
       <c r="L9">
-        <v>9.900610590011029</v>
+        <v>7.220053683230339</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.37158211422946</v>
+        <v>17.36003150243802</v>
       </c>
       <c r="C10">
-        <v>8.002490906037536</v>
+        <v>6.555958972312909</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.89890234799</v>
+        <v>8.750986880130984</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>49.1394718453048</v>
+        <v>44.76020900217904</v>
       </c>
       <c r="H10">
-        <v>19.16176192320129</v>
+        <v>13.72385574946598</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.44766478171284</v>
+        <v>13.24699120125108</v>
       </c>
       <c r="L10">
-        <v>9.93076033971494</v>
+        <v>7.569100660161165</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.52392440489634</v>
+        <v>18.0100811164553</v>
       </c>
       <c r="C11">
-        <v>8.016409447351554</v>
+        <v>6.597197404482907</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.90664468422956</v>
+        <v>8.888645555761466</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>49.23347890469099</v>
+        <v>45.49456091299903</v>
       </c>
       <c r="H11">
-        <v>19.14787306960611</v>
+        <v>13.78479425752049</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.54698144034388</v>
+        <v>13.71429145450973</v>
       </c>
       <c r="L11">
-        <v>9.946282431697394</v>
+        <v>7.728231051065566</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.58174075669224</v>
+        <v>18.25182071081728</v>
       </c>
       <c r="C12">
-        <v>8.021631693435269</v>
+        <v>6.612815445266529</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.90987979621856</v>
+        <v>8.94124330356939</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>49.27082563616187</v>
+        <v>45.77838093490475</v>
       </c>
       <c r="H12">
-        <v>19.14307267158235</v>
+        <v>13.80969182959212</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.58473577388228</v>
+        <v>13.88806499879851</v>
       </c>
       <c r="L12">
-        <v>9.952417171078093</v>
+        <v>7.788512447868859</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.56928416290105</v>
+        <v>18.19995280116538</v>
       </c>
       <c r="C13">
-        <v>8.020509148324905</v>
+        <v>6.609451564274392</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.90916959575025</v>
+        <v>8.929894712910331</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>49.26270478216084</v>
+        <v>45.71699765454215</v>
       </c>
       <c r="H13">
-        <v>19.144086092094</v>
+        <v>13.80424692701475</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.57659878135533</v>
+        <v>13.85078021080055</v>
       </c>
       <c r="L13">
-        <v>9.951084571065845</v>
+        <v>7.775529155117235</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.52867874571719</v>
+        <v>18.03005720953046</v>
       </c>
       <c r="C14">
-        <v>8.016840057010826</v>
+        <v>6.598482210450624</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.90690477049013</v>
+        <v>8.892963452413122</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>49.23651647157409</v>
+        <v>45.51779511812819</v>
       </c>
       <c r="H14">
-        <v>19.14746893276995</v>
+        <v>13.78680546070903</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.55008479486485</v>
+        <v>13.72865130267997</v>
       </c>
       <c r="L14">
-        <v>9.946782010385562</v>
+        <v>7.733190128773654</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50382175512464</v>
+        <v>17.92541848575976</v>
       </c>
       <c r="C15">
-        <v>8.014586317398088</v>
+        <v>6.591763729742653</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.90555694436455</v>
+        <v>8.870402824621548</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>49.22070270966719</v>
+        <v>45.39652937708441</v>
       </c>
       <c r="H15">
-        <v>19.14960082802491</v>
+        <v>13.77636252769022</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.53386212433495</v>
+        <v>13.65343135411874</v>
       </c>
       <c r="L15">
-        <v>9.94417992636842</v>
+        <v>7.707258429665241</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.36164703086848</v>
+        <v>17.31692553926565</v>
       </c>
       <c r="C16">
-        <v>8.001574544733277</v>
+        <v>6.553263655793974</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.89843889143412</v>
+        <v>8.742056814989322</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>49.1335735256807</v>
+        <v>44.71301211567488</v>
       </c>
       <c r="H16">
-        <v>19.16273376616028</v>
+        <v>13.720122221131</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.44119638233466</v>
+        <v>13.21600293405962</v>
       </c>
       <c r="L16">
-        <v>9.929782045238071</v>
+        <v>7.558705578768456</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.27471348721416</v>
+        <v>16.93566182178289</v>
       </c>
       <c r="C17">
-        <v>7.993506452952922</v>
+        <v>6.529637774738696</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.89461401518874</v>
+        <v>8.664168339300353</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>49.08324827908579</v>
+        <v>44.30375777679601</v>
       </c>
       <c r="H17">
-        <v>19.17160679884344</v>
+        <v>13.68874866197576</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.38464405243394</v>
+        <v>12.94191391678267</v>
       </c>
       <c r="L17">
-        <v>9.921410157354606</v>
+        <v>7.46764032913146</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.22483448823579</v>
+        <v>16.71341018008599</v>
       </c>
       <c r="C18">
-        <v>7.988834499377837</v>
+        <v>6.516043080669201</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.89261363724034</v>
+        <v>8.61968440470817</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>49.05545437853749</v>
+        <v>44.07201742178992</v>
       </c>
       <c r="H18">
-        <v>19.17700999394017</v>
+        <v>13.67181860775002</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.35223604445276</v>
+        <v>12.78213488036145</v>
       </c>
       <c r="L18">
-        <v>9.916765128627597</v>
+        <v>7.41529594979008</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.20796911185764</v>
+        <v>16.63764878022403</v>
       </c>
       <c r="C19">
-        <v>7.987247275179911</v>
+        <v>6.511438899576939</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.89197066584228</v>
+        <v>8.604677494969394</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>49.04624194627025</v>
+        <v>43.99417709221614</v>
       </c>
       <c r="H19">
-        <v>19.17889085447291</v>
+        <v>13.66627469747566</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.3412847956911</v>
+        <v>12.7276686915251</v>
       </c>
       <c r="L19">
-        <v>9.915221729962715</v>
+        <v>7.397579824608967</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.2839553958318</v>
+        <v>16.97655359204484</v>
       </c>
       <c r="C20">
-        <v>7.994368567820062</v>
+        <v>6.532153316091121</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.89500053326523</v>
+        <v>8.672427146681059</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>49.08848634196636</v>
+        <v>44.34694462704432</v>
       </c>
       <c r="H20">
-        <v>19.17063122709838</v>
+        <v>13.69197224556344</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.39065203446699</v>
+        <v>12.97131118652768</v>
       </c>
       <c r="L20">
-        <v>9.922283758491465</v>
+        <v>7.477331089332187</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.54060251219893</v>
+        <v>18.08007885210454</v>
       </c>
       <c r="C21">
-        <v>8.017919074862077</v>
+        <v>6.601704038354944</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.90756178730502</v>
+        <v>8.90379839701056</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>49.24416125856231</v>
+        <v>45.57614883334846</v>
       </c>
       <c r="H21">
-        <v>19.14646284476881</v>
+        <v>13.79187813128927</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.557868923024</v>
+        <v>13.76460935539565</v>
       </c>
       <c r="L21">
-        <v>9.948038830477101</v>
+        <v>7.7456257135177</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.70905526900684</v>
+        <v>18.77558154918637</v>
       </c>
       <c r="C22">
-        <v>8.033028379076335</v>
+        <v>6.647176386228923</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.91753806148398</v>
+        <v>9.057745911542666</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>49.35608779313074</v>
+        <v>46.41301991260119</v>
       </c>
       <c r="H22">
-        <v>19.13334330459191</v>
+        <v>13.86784214715869</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.66798597029674</v>
+        <v>14.2645580825428</v>
       </c>
       <c r="L22">
-        <v>9.966366886101925</v>
+        <v>7.921092951843933</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.61910104825184</v>
+        <v>18.40669911236767</v>
       </c>
       <c r="C23">
-        <v>8.024990220596665</v>
+        <v>6.622901791909467</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.91205242881137</v>
+        <v>8.975334148618657</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>49.29542266854518</v>
+        <v>45.96324870181417</v>
       </c>
       <c r="H23">
-        <v>19.14010026721186</v>
+        <v>13.82628587334047</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.6091495617881</v>
+        <v>13.99939714477899</v>
       </c>
       <c r="L23">
-        <v>9.956449050299444</v>
+        <v>7.827439112829111</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.27977681243945</v>
+        <v>16.95807595464062</v>
       </c>
       <c r="C24">
-        <v>7.993978910023462</v>
+        <v>6.531016077497467</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.89482516973841</v>
+        <v>8.668692419484152</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>49.08611466571298</v>
+        <v>44.32740881957797</v>
       </c>
       <c r="H24">
-        <v>19.17107134248394</v>
+        <v>13.69051142339296</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.38793549710917</v>
+        <v>12.95802754323712</v>
       </c>
       <c r="L24">
-        <v>9.921888279643614</v>
+        <v>7.472949862541552</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.91868563426553</v>
+        <v>15.36634385658544</v>
       </c>
       <c r="C25">
-        <v>7.959329206594617</v>
+        <v>6.431656907486964</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.88387749562232</v>
+        <v>8.350059735101979</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>48.90439782184707</v>
+        <v>42.70196752284149</v>
       </c>
       <c r="H25">
-        <v>19.21592975133762</v>
+        <v>13.58628572643552</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.15402247309554</v>
+        <v>11.75308855831533</v>
       </c>
       <c r="L25">
-        <v>9.891127671410267</v>
+        <v>7.092040664062971</v>
       </c>
       <c r="M25">
         <v>0</v>
